--- a/origin-board-data/ccpc/2020/wfinal/raw/CCPC2020-参赛队伍数据.xlsx
+++ b/origin-board-data/ccpc/2020/wfinal/raw/CCPC2020-参赛队伍数据.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194">
   <si>
     <t>比赛</t>
   </si>
@@ -2621,9 +2621,6 @@
   </si>
   <si>
     <t>T366_石大京_英雄扬鞭催战马</t>
-  </si>
-  <si>
-    <t>放弃</t>
   </si>
   <si>
     <t>T367</t>
@@ -3606,9 +3603,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -3635,24 +3632,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3660,14 +3649,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3679,8 +3660,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3696,38 +3678,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3748,6 +3699,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -3756,16 +3714,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3786,7 +3783,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3798,13 +3831,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3816,19 +3849,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3840,19 +3897,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3864,43 +3909,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3918,31 +3927,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3960,7 +3945,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3983,10 +3980,66 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4009,62 +4062,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -4076,142 +4073,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4546,8 +4543,8 @@
   <sheetPr/>
   <dimension ref="A1:E504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
+      <selection activeCell="H363" sqref="H363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="4"/>
@@ -6833,7 +6830,7 @@
         <v>314</v>
       </c>
       <c r="E134" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -6952,7 +6949,7 @@
         <v>331</v>
       </c>
       <c r="E141" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -7921,7 +7918,7 @@
         <v>469</v>
       </c>
       <c r="E198" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -10794,7 +10791,7 @@
         <v>868</v>
       </c>
       <c r="E367" t="s">
-        <v>869</v>
+        <v>54</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -10802,13 +10799,13 @@
         <v>5</v>
       </c>
       <c r="B368" t="s">
+        <v>869</v>
+      </c>
+      <c r="C368" t="s">
         <v>870</v>
       </c>
-      <c r="C368" t="s">
+      <c r="D368" t="s">
         <v>871</v>
-      </c>
-      <c r="D368" t="s">
-        <v>872</v>
       </c>
       <c r="E368" t="s">
         <v>9</v>
@@ -10819,13 +10816,13 @@
         <v>12</v>
       </c>
       <c r="B369" t="s">
+        <v>872</v>
+      </c>
+      <c r="C369" t="s">
+        <v>870</v>
+      </c>
+      <c r="D369" t="s">
         <v>873</v>
-      </c>
-      <c r="C369" t="s">
-        <v>871</v>
-      </c>
-      <c r="D369" t="s">
-        <v>874</v>
       </c>
       <c r="E369" t="s">
         <v>54</v>
@@ -10836,13 +10833,13 @@
         <v>5</v>
       </c>
       <c r="B370" t="s">
+        <v>874</v>
+      </c>
+      <c r="C370" t="s">
         <v>875</v>
       </c>
-      <c r="C370" t="s">
+      <c r="D370" t="s">
         <v>876</v>
-      </c>
-      <c r="D370" t="s">
-        <v>877</v>
       </c>
       <c r="E370" t="s">
         <v>9</v>
@@ -10853,13 +10850,13 @@
         <v>5</v>
       </c>
       <c r="B371" t="s">
+        <v>877</v>
+      </c>
+      <c r="C371" t="s">
+        <v>875</v>
+      </c>
+      <c r="D371" t="s">
         <v>878</v>
-      </c>
-      <c r="C371" t="s">
-        <v>876</v>
-      </c>
-      <c r="D371" t="s">
-        <v>879</v>
       </c>
       <c r="E371" t="s">
         <v>9</v>
@@ -10870,13 +10867,13 @@
         <v>12</v>
       </c>
       <c r="B372" t="s">
+        <v>879</v>
+      </c>
+      <c r="C372" t="s">
+        <v>875</v>
+      </c>
+      <c r="D372" t="s">
         <v>880</v>
-      </c>
-      <c r="C372" t="s">
-        <v>876</v>
-      </c>
-      <c r="D372" t="s">
-        <v>881</v>
       </c>
       <c r="E372" t="s">
         <v>16</v>
@@ -10887,13 +10884,13 @@
         <v>12</v>
       </c>
       <c r="B373" t="s">
+        <v>881</v>
+      </c>
+      <c r="C373" t="s">
+        <v>875</v>
+      </c>
+      <c r="D373" t="s">
         <v>882</v>
-      </c>
-      <c r="C373" t="s">
-        <v>876</v>
-      </c>
-      <c r="D373" t="s">
-        <v>883</v>
       </c>
       <c r="E373" t="s">
         <v>16</v>
@@ -10904,13 +10901,13 @@
         <v>12</v>
       </c>
       <c r="B374" t="s">
+        <v>883</v>
+      </c>
+      <c r="C374" t="s">
         <v>884</v>
       </c>
-      <c r="C374" t="s">
+      <c r="D374" t="s">
         <v>885</v>
-      </c>
-      <c r="D374" t="s">
-        <v>886</v>
       </c>
       <c r="E374" t="s">
         <v>16</v>
@@ -10921,13 +10918,13 @@
         <v>5</v>
       </c>
       <c r="B375" t="s">
+        <v>886</v>
+      </c>
+      <c r="C375" t="s">
         <v>887</v>
       </c>
-      <c r="C375" t="s">
+      <c r="D375" t="s">
         <v>888</v>
-      </c>
-      <c r="D375" t="s">
-        <v>889</v>
       </c>
       <c r="E375" t="s">
         <v>9</v>
@@ -10938,13 +10935,13 @@
         <v>5</v>
       </c>
       <c r="B376" t="s">
+        <v>889</v>
+      </c>
+      <c r="C376" t="s">
+        <v>887</v>
+      </c>
+      <c r="D376" t="s">
         <v>890</v>
-      </c>
-      <c r="C376" t="s">
-        <v>888</v>
-      </c>
-      <c r="D376" t="s">
-        <v>891</v>
       </c>
       <c r="E376" t="s">
         <v>9</v>
@@ -10955,13 +10952,13 @@
         <v>12</v>
       </c>
       <c r="B377" t="s">
+        <v>891</v>
+      </c>
+      <c r="C377" t="s">
+        <v>887</v>
+      </c>
+      <c r="D377" t="s">
         <v>892</v>
-      </c>
-      <c r="C377" t="s">
-        <v>888</v>
-      </c>
-      <c r="D377" t="s">
-        <v>893</v>
       </c>
       <c r="E377" t="s">
         <v>16</v>
@@ -10972,13 +10969,13 @@
         <v>12</v>
       </c>
       <c r="B378" t="s">
+        <v>893</v>
+      </c>
+      <c r="C378" t="s">
+        <v>887</v>
+      </c>
+      <c r="D378" t="s">
         <v>894</v>
-      </c>
-      <c r="C378" t="s">
-        <v>888</v>
-      </c>
-      <c r="D378" t="s">
-        <v>895</v>
       </c>
       <c r="E378" t="s">
         <v>16</v>
@@ -10989,13 +10986,13 @@
         <v>12</v>
       </c>
       <c r="B379" t="s">
+        <v>895</v>
+      </c>
+      <c r="C379" t="s">
+        <v>887</v>
+      </c>
+      <c r="D379" t="s">
         <v>896</v>
-      </c>
-      <c r="C379" t="s">
-        <v>888</v>
-      </c>
-      <c r="D379" t="s">
-        <v>897</v>
       </c>
       <c r="E379" t="s">
         <v>16</v>
@@ -11006,13 +11003,13 @@
         <v>5</v>
       </c>
       <c r="B380" t="s">
+        <v>897</v>
+      </c>
+      <c r="C380" t="s">
         <v>898</v>
       </c>
-      <c r="C380" t="s">
+      <c r="D380" t="s">
         <v>899</v>
-      </c>
-      <c r="D380" t="s">
-        <v>900</v>
       </c>
       <c r="E380" t="s">
         <v>9</v>
@@ -11023,13 +11020,13 @@
         <v>5</v>
       </c>
       <c r="B381" t="s">
+        <v>900</v>
+      </c>
+      <c r="C381" t="s">
+        <v>898</v>
+      </c>
+      <c r="D381" t="s">
         <v>901</v>
-      </c>
-      <c r="C381" t="s">
-        <v>899</v>
-      </c>
-      <c r="D381" t="s">
-        <v>902</v>
       </c>
       <c r="E381" t="s">
         <v>9</v>
@@ -11040,13 +11037,13 @@
         <v>12</v>
       </c>
       <c r="B382" t="s">
+        <v>902</v>
+      </c>
+      <c r="C382" t="s">
+        <v>898</v>
+      </c>
+      <c r="D382" t="s">
         <v>903</v>
-      </c>
-      <c r="C382" t="s">
-        <v>899</v>
-      </c>
-      <c r="D382" t="s">
-        <v>904</v>
       </c>
       <c r="E382" t="s">
         <v>16</v>
@@ -11057,13 +11054,13 @@
         <v>12</v>
       </c>
       <c r="B383" t="s">
+        <v>904</v>
+      </c>
+      <c r="C383" t="s">
+        <v>898</v>
+      </c>
+      <c r="D383" t="s">
         <v>905</v>
-      </c>
-      <c r="C383" t="s">
-        <v>899</v>
-      </c>
-      <c r="D383" t="s">
-        <v>906</v>
       </c>
       <c r="E383" t="s">
         <v>54</v>
@@ -11074,13 +11071,13 @@
         <v>5</v>
       </c>
       <c r="B384" t="s">
+        <v>906</v>
+      </c>
+      <c r="C384" t="s">
         <v>907</v>
       </c>
-      <c r="C384" t="s">
+      <c r="D384" t="s">
         <v>908</v>
-      </c>
-      <c r="D384" t="s">
-        <v>909</v>
       </c>
       <c r="E384" t="s">
         <v>9</v>
@@ -11091,13 +11088,13 @@
         <v>5</v>
       </c>
       <c r="B385" t="s">
+        <v>909</v>
+      </c>
+      <c r="C385" t="s">
         <v>910</v>
       </c>
-      <c r="C385" t="s">
+      <c r="D385" t="s">
         <v>911</v>
-      </c>
-      <c r="D385" t="s">
-        <v>912</v>
       </c>
       <c r="E385" t="s">
         <v>9</v>
@@ -11108,13 +11105,13 @@
         <v>12</v>
       </c>
       <c r="B386" t="s">
+        <v>912</v>
+      </c>
+      <c r="C386" t="s">
+        <v>910</v>
+      </c>
+      <c r="D386" t="s">
         <v>913</v>
-      </c>
-      <c r="C386" t="s">
-        <v>911</v>
-      </c>
-      <c r="D386" t="s">
-        <v>914</v>
       </c>
       <c r="E386" t="s">
         <v>16</v>
@@ -11125,13 +11122,13 @@
         <v>12</v>
       </c>
       <c r="B387" t="s">
+        <v>914</v>
+      </c>
+      <c r="C387" t="s">
+        <v>910</v>
+      </c>
+      <c r="D387" t="s">
         <v>915</v>
-      </c>
-      <c r="C387" t="s">
-        <v>911</v>
-      </c>
-      <c r="D387" t="s">
-        <v>916</v>
       </c>
       <c r="E387" t="s">
         <v>16</v>
@@ -11142,13 +11139,13 @@
         <v>5</v>
       </c>
       <c r="B388" t="s">
+        <v>916</v>
+      </c>
+      <c r="C388" t="s">
         <v>917</v>
       </c>
-      <c r="C388" t="s">
+      <c r="D388" t="s">
         <v>918</v>
-      </c>
-      <c r="D388" t="s">
-        <v>919</v>
       </c>
       <c r="E388" t="s">
         <v>9</v>
@@ -11159,13 +11156,13 @@
         <v>12</v>
       </c>
       <c r="B389" t="s">
+        <v>919</v>
+      </c>
+      <c r="C389" t="s">
+        <v>917</v>
+      </c>
+      <c r="D389" t="s">
         <v>920</v>
-      </c>
-      <c r="C389" t="s">
-        <v>918</v>
-      </c>
-      <c r="D389" t="s">
-        <v>921</v>
       </c>
       <c r="E389" t="s">
         <v>16</v>
@@ -11176,13 +11173,13 @@
         <v>12</v>
       </c>
       <c r="B390" t="s">
+        <v>921</v>
+      </c>
+      <c r="C390" t="s">
         <v>922</v>
       </c>
-      <c r="C390" t="s">
+      <c r="D390" t="s">
         <v>923</v>
-      </c>
-      <c r="D390" t="s">
-        <v>924</v>
       </c>
       <c r="E390" t="s">
         <v>16</v>
@@ -11193,13 +11190,13 @@
         <v>12</v>
       </c>
       <c r="B391" t="s">
+        <v>924</v>
+      </c>
+      <c r="C391" t="s">
         <v>925</v>
       </c>
-      <c r="C391" t="s">
+      <c r="D391" t="s">
         <v>926</v>
-      </c>
-      <c r="D391" t="s">
-        <v>927</v>
       </c>
       <c r="E391" t="s">
         <v>16</v>
@@ -11210,13 +11207,13 @@
         <v>12</v>
       </c>
       <c r="B392" t="s">
+        <v>927</v>
+      </c>
+      <c r="C392" t="s">
+        <v>925</v>
+      </c>
+      <c r="D392" t="s">
         <v>928</v>
-      </c>
-      <c r="C392" t="s">
-        <v>926</v>
-      </c>
-      <c r="D392" t="s">
-        <v>929</v>
       </c>
       <c r="E392" t="s">
         <v>16</v>
@@ -11227,13 +11224,13 @@
         <v>5</v>
       </c>
       <c r="B393" t="s">
+        <v>929</v>
+      </c>
+      <c r="C393" t="s">
         <v>930</v>
       </c>
-      <c r="C393" t="s">
+      <c r="D393" t="s">
         <v>931</v>
-      </c>
-      <c r="D393" t="s">
-        <v>932</v>
       </c>
       <c r="E393" t="s">
         <v>9</v>
@@ -11244,13 +11241,13 @@
         <v>12</v>
       </c>
       <c r="B394" t="s">
+        <v>932</v>
+      </c>
+      <c r="C394" t="s">
+        <v>930</v>
+      </c>
+      <c r="D394" t="s">
         <v>933</v>
-      </c>
-      <c r="C394" t="s">
-        <v>931</v>
-      </c>
-      <c r="D394" t="s">
-        <v>934</v>
       </c>
       <c r="E394" t="s">
         <v>16</v>
@@ -11261,13 +11258,13 @@
         <v>5</v>
       </c>
       <c r="B395" t="s">
+        <v>934</v>
+      </c>
+      <c r="C395" t="s">
         <v>935</v>
       </c>
-      <c r="C395" t="s">
+      <c r="D395" t="s">
         <v>936</v>
-      </c>
-      <c r="D395" t="s">
-        <v>937</v>
       </c>
       <c r="E395" t="s">
         <v>9</v>
@@ -11278,13 +11275,13 @@
         <v>5</v>
       </c>
       <c r="B396" t="s">
+        <v>937</v>
+      </c>
+      <c r="C396" t="s">
         <v>938</v>
       </c>
-      <c r="C396" t="s">
+      <c r="D396" t="s">
         <v>939</v>
-      </c>
-      <c r="D396" t="s">
-        <v>940</v>
       </c>
       <c r="E396" t="s">
         <v>9</v>
@@ -11295,13 +11292,13 @@
         <v>12</v>
       </c>
       <c r="B397" t="s">
+        <v>940</v>
+      </c>
+      <c r="C397" t="s">
+        <v>938</v>
+      </c>
+      <c r="D397" t="s">
         <v>941</v>
-      </c>
-      <c r="C397" t="s">
-        <v>939</v>
-      </c>
-      <c r="D397" t="s">
-        <v>942</v>
       </c>
       <c r="E397" t="s">
         <v>16</v>
@@ -11312,13 +11309,13 @@
         <v>12</v>
       </c>
       <c r="B398" t="s">
+        <v>942</v>
+      </c>
+      <c r="C398" t="s">
+        <v>938</v>
+      </c>
+      <c r="D398" t="s">
         <v>943</v>
-      </c>
-      <c r="C398" t="s">
-        <v>939</v>
-      </c>
-      <c r="D398" t="s">
-        <v>944</v>
       </c>
       <c r="E398" t="s">
         <v>16</v>
@@ -11329,13 +11326,13 @@
         <v>12</v>
       </c>
       <c r="B399" t="s">
+        <v>944</v>
+      </c>
+      <c r="C399" t="s">
         <v>945</v>
       </c>
-      <c r="C399" t="s">
+      <c r="D399" t="s">
         <v>946</v>
-      </c>
-      <c r="D399" t="s">
-        <v>947</v>
       </c>
       <c r="E399" t="s">
         <v>16</v>
@@ -11346,13 +11343,13 @@
         <v>5</v>
       </c>
       <c r="B400" t="s">
+        <v>947</v>
+      </c>
+      <c r="C400" t="s">
         <v>948</v>
       </c>
-      <c r="C400" t="s">
+      <c r="D400" t="s">
         <v>949</v>
-      </c>
-      <c r="D400" t="s">
-        <v>950</v>
       </c>
       <c r="E400" t="s">
         <v>9</v>
@@ -11363,13 +11360,13 @@
         <v>12</v>
       </c>
       <c r="B401" t="s">
+        <v>950</v>
+      </c>
+      <c r="C401" t="s">
+        <v>948</v>
+      </c>
+      <c r="D401" t="s">
         <v>951</v>
-      </c>
-      <c r="C401" t="s">
-        <v>949</v>
-      </c>
-      <c r="D401" t="s">
-        <v>952</v>
       </c>
       <c r="E401" t="s">
         <v>16</v>
@@ -11380,13 +11377,13 @@
         <v>12</v>
       </c>
       <c r="B402" t="s">
+        <v>952</v>
+      </c>
+      <c r="C402" t="s">
         <v>953</v>
       </c>
-      <c r="C402" t="s">
+      <c r="D402" t="s">
         <v>954</v>
-      </c>
-      <c r="D402" t="s">
-        <v>955</v>
       </c>
       <c r="E402" t="s">
         <v>16</v>
@@ -11397,13 +11394,13 @@
         <v>12</v>
       </c>
       <c r="B403" t="s">
+        <v>955</v>
+      </c>
+      <c r="C403" t="s">
+        <v>953</v>
+      </c>
+      <c r="D403" t="s">
         <v>956</v>
-      </c>
-      <c r="C403" t="s">
-        <v>954</v>
-      </c>
-      <c r="D403" t="s">
-        <v>957</v>
       </c>
       <c r="E403" t="s">
         <v>16</v>
@@ -11414,13 +11411,13 @@
         <v>5</v>
       </c>
       <c r="B404" t="s">
+        <v>957</v>
+      </c>
+      <c r="C404" t="s">
         <v>958</v>
       </c>
-      <c r="C404" t="s">
+      <c r="D404" t="s">
         <v>959</v>
-      </c>
-      <c r="D404" t="s">
-        <v>960</v>
       </c>
       <c r="E404" t="s">
         <v>9</v>
@@ -11431,13 +11428,13 @@
         <v>5</v>
       </c>
       <c r="B405" t="s">
+        <v>960</v>
+      </c>
+      <c r="C405" t="s">
         <v>961</v>
       </c>
-      <c r="C405" t="s">
+      <c r="D405" t="s">
         <v>962</v>
-      </c>
-      <c r="D405" t="s">
-        <v>963</v>
       </c>
       <c r="E405" t="s">
         <v>9</v>
@@ -11448,13 +11445,13 @@
         <v>5</v>
       </c>
       <c r="B406" t="s">
+        <v>963</v>
+      </c>
+      <c r="C406" t="s">
         <v>964</v>
       </c>
-      <c r="C406" t="s">
+      <c r="D406" t="s">
         <v>965</v>
-      </c>
-      <c r="D406" t="s">
-        <v>966</v>
       </c>
       <c r="E406" t="s">
         <v>9</v>
@@ -11465,13 +11462,13 @@
         <v>12</v>
       </c>
       <c r="B407" t="s">
+        <v>966</v>
+      </c>
+      <c r="C407" t="s">
+        <v>964</v>
+      </c>
+      <c r="D407" t="s">
         <v>967</v>
-      </c>
-      <c r="C407" t="s">
-        <v>965</v>
-      </c>
-      <c r="D407" t="s">
-        <v>968</v>
       </c>
       <c r="E407" t="s">
         <v>16</v>
@@ -11482,13 +11479,13 @@
         <v>12</v>
       </c>
       <c r="B408" t="s">
+        <v>968</v>
+      </c>
+      <c r="C408" t="s">
+        <v>964</v>
+      </c>
+      <c r="D408" t="s">
         <v>969</v>
-      </c>
-      <c r="C408" t="s">
-        <v>965</v>
-      </c>
-      <c r="D408" t="s">
-        <v>970</v>
       </c>
       <c r="E408" t="s">
         <v>16</v>
@@ -11499,13 +11496,13 @@
         <v>12</v>
       </c>
       <c r="B409" t="s">
+        <v>970</v>
+      </c>
+      <c r="C409" t="s">
+        <v>964</v>
+      </c>
+      <c r="D409" t="s">
         <v>971</v>
-      </c>
-      <c r="C409" t="s">
-        <v>965</v>
-      </c>
-      <c r="D409" t="s">
-        <v>972</v>
       </c>
       <c r="E409" t="s">
         <v>16</v>
@@ -11516,13 +11513,13 @@
         <v>12</v>
       </c>
       <c r="B410" t="s">
+        <v>972</v>
+      </c>
+      <c r="C410" t="s">
         <v>973</v>
       </c>
-      <c r="C410" t="s">
+      <c r="D410" t="s">
         <v>974</v>
-      </c>
-      <c r="D410" t="s">
-        <v>975</v>
       </c>
       <c r="E410" t="s">
         <v>16</v>
@@ -11533,13 +11530,13 @@
         <v>12</v>
       </c>
       <c r="B411" t="s">
+        <v>975</v>
+      </c>
+      <c r="C411" t="s">
+        <v>973</v>
+      </c>
+      <c r="D411" t="s">
         <v>976</v>
-      </c>
-      <c r="C411" t="s">
-        <v>974</v>
-      </c>
-      <c r="D411" t="s">
-        <v>977</v>
       </c>
       <c r="E411" t="s">
         <v>16</v>
@@ -11550,13 +11547,13 @@
         <v>12</v>
       </c>
       <c r="B412" t="s">
+        <v>977</v>
+      </c>
+      <c r="C412" t="s">
+        <v>973</v>
+      </c>
+      <c r="D412" t="s">
         <v>978</v>
-      </c>
-      <c r="C412" t="s">
-        <v>974</v>
-      </c>
-      <c r="D412" t="s">
-        <v>979</v>
       </c>
       <c r="E412" t="s">
         <v>16</v>
@@ -11567,13 +11564,13 @@
         <v>5</v>
       </c>
       <c r="B413" t="s">
+        <v>979</v>
+      </c>
+      <c r="C413" t="s">
         <v>980</v>
       </c>
-      <c r="C413" t="s">
+      <c r="D413" t="s">
         <v>981</v>
-      </c>
-      <c r="D413" t="s">
-        <v>982</v>
       </c>
       <c r="E413" t="s">
         <v>9</v>
@@ -11584,13 +11581,13 @@
         <v>12</v>
       </c>
       <c r="B414" t="s">
+        <v>982</v>
+      </c>
+      <c r="C414" t="s">
+        <v>980</v>
+      </c>
+      <c r="D414" t="s">
         <v>983</v>
-      </c>
-      <c r="C414" t="s">
-        <v>981</v>
-      </c>
-      <c r="D414" t="s">
-        <v>984</v>
       </c>
       <c r="E414" t="s">
         <v>16</v>
@@ -11601,13 +11598,13 @@
         <v>5</v>
       </c>
       <c r="B415" t="s">
+        <v>984</v>
+      </c>
+      <c r="C415" t="s">
         <v>985</v>
       </c>
-      <c r="C415" t="s">
+      <c r="D415" t="s">
         <v>986</v>
-      </c>
-      <c r="D415" t="s">
-        <v>987</v>
       </c>
       <c r="E415" t="s">
         <v>9</v>
@@ -11618,13 +11615,13 @@
         <v>12</v>
       </c>
       <c r="B416" t="s">
+        <v>987</v>
+      </c>
+      <c r="C416" t="s">
         <v>988</v>
       </c>
-      <c r="C416" t="s">
+      <c r="D416" t="s">
         <v>989</v>
-      </c>
-      <c r="D416" t="s">
-        <v>990</v>
       </c>
       <c r="E416" t="s">
         <v>16</v>
@@ -11635,13 +11632,13 @@
         <v>12</v>
       </c>
       <c r="B417" t="s">
+        <v>990</v>
+      </c>
+      <c r="C417" t="s">
+        <v>988</v>
+      </c>
+      <c r="D417" t="s">
         <v>991</v>
-      </c>
-      <c r="C417" t="s">
-        <v>989</v>
-      </c>
-      <c r="D417" t="s">
-        <v>992</v>
       </c>
       <c r="E417" t="s">
         <v>16</v>
@@ -11652,13 +11649,13 @@
         <v>5</v>
       </c>
       <c r="B418" t="s">
+        <v>992</v>
+      </c>
+      <c r="C418" t="s">
         <v>993</v>
       </c>
-      <c r="C418" t="s">
+      <c r="D418" t="s">
         <v>994</v>
-      </c>
-      <c r="D418" t="s">
-        <v>995</v>
       </c>
       <c r="E418" t="s">
         <v>9</v>
@@ -11669,13 +11666,13 @@
         <v>12</v>
       </c>
       <c r="B419" t="s">
+        <v>995</v>
+      </c>
+      <c r="C419" t="s">
+        <v>993</v>
+      </c>
+      <c r="D419" t="s">
         <v>996</v>
-      </c>
-      <c r="C419" t="s">
-        <v>994</v>
-      </c>
-      <c r="D419" t="s">
-        <v>997</v>
       </c>
       <c r="E419" t="s">
         <v>16</v>
@@ -11686,13 +11683,13 @@
         <v>12</v>
       </c>
       <c r="B420" t="s">
+        <v>997</v>
+      </c>
+      <c r="C420" t="s">
+        <v>993</v>
+      </c>
+      <c r="D420" t="s">
         <v>998</v>
-      </c>
-      <c r="C420" t="s">
-        <v>994</v>
-      </c>
-      <c r="D420" t="s">
-        <v>999</v>
       </c>
       <c r="E420" t="s">
         <v>16</v>
@@ -11703,13 +11700,13 @@
         <v>12</v>
       </c>
       <c r="B421" t="s">
+        <v>999</v>
+      </c>
+      <c r="C421" t="s">
+        <v>993</v>
+      </c>
+      <c r="D421" t="s">
         <v>1000</v>
-      </c>
-      <c r="C421" t="s">
-        <v>994</v>
-      </c>
-      <c r="D421" t="s">
-        <v>1001</v>
       </c>
       <c r="E421" t="s">
         <v>16</v>
@@ -11720,13 +11717,13 @@
         <v>12</v>
       </c>
       <c r="B422" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C422" t="s">
+        <v>993</v>
+      </c>
+      <c r="D422" t="s">
         <v>1002</v>
-      </c>
-      <c r="C422" t="s">
-        <v>994</v>
-      </c>
-      <c r="D422" t="s">
-        <v>1003</v>
       </c>
       <c r="E422" t="s">
         <v>16</v>
@@ -11737,13 +11734,13 @@
         <v>5</v>
       </c>
       <c r="B423" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C423" t="s">
         <v>1004</v>
       </c>
-      <c r="C423" t="s">
+      <c r="D423" t="s">
         <v>1005</v>
-      </c>
-      <c r="D423" t="s">
-        <v>1006</v>
       </c>
       <c r="E423" t="s">
         <v>9</v>
@@ -11754,13 +11751,13 @@
         <v>5</v>
       </c>
       <c r="B424" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D424" t="s">
         <v>1007</v>
-      </c>
-      <c r="C424" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D424" t="s">
-        <v>1008</v>
       </c>
       <c r="E424" t="s">
         <v>9</v>
@@ -11771,13 +11768,13 @@
         <v>12</v>
       </c>
       <c r="B425" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D425" t="s">
         <v>1009</v>
-      </c>
-      <c r="C425" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D425" t="s">
-        <v>1010</v>
       </c>
       <c r="E425" t="s">
         <v>54</v>
@@ -11788,13 +11785,13 @@
         <v>12</v>
       </c>
       <c r="B426" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D426" t="s">
         <v>1011</v>
-      </c>
-      <c r="C426" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D426" t="s">
-        <v>1012</v>
       </c>
       <c r="E426" t="s">
         <v>16</v>
@@ -11805,13 +11802,13 @@
         <v>12</v>
       </c>
       <c r="B427" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C427" t="s">
         <v>1013</v>
       </c>
-      <c r="C427" t="s">
+      <c r="D427" t="s">
         <v>1014</v>
-      </c>
-      <c r="D427" t="s">
-        <v>1015</v>
       </c>
       <c r="E427" t="s">
         <v>16</v>
@@ -11822,13 +11819,13 @@
         <v>5</v>
       </c>
       <c r="B428" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C428" t="s">
         <v>1016</v>
       </c>
-      <c r="C428" t="s">
+      <c r="D428" t="s">
         <v>1017</v>
-      </c>
-      <c r="D428" t="s">
-        <v>1018</v>
       </c>
       <c r="E428" t="s">
         <v>9</v>
@@ -11839,13 +11836,13 @@
         <v>5</v>
       </c>
       <c r="B429" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D429" t="s">
         <v>1019</v>
-      </c>
-      <c r="C429" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D429" t="s">
-        <v>1020</v>
       </c>
       <c r="E429" t="s">
         <v>9</v>
@@ -11856,13 +11853,13 @@
         <v>5</v>
       </c>
       <c r="B430" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C430" t="s">
         <v>1021</v>
       </c>
-      <c r="C430" t="s">
+      <c r="D430" t="s">
         <v>1022</v>
-      </c>
-      <c r="D430" t="s">
-        <v>1023</v>
       </c>
       <c r="E430" t="s">
         <v>9</v>
@@ -11873,13 +11870,13 @@
         <v>12</v>
       </c>
       <c r="B431" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D431" t="s">
         <v>1024</v>
-      </c>
-      <c r="C431" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D431" t="s">
-        <v>1025</v>
       </c>
       <c r="E431" t="s">
         <v>16</v>
@@ -11890,13 +11887,13 @@
         <v>5</v>
       </c>
       <c r="B432" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C432" t="s">
         <v>1026</v>
       </c>
-      <c r="C432" t="s">
+      <c r="D432" t="s">
         <v>1027</v>
-      </c>
-      <c r="D432" t="s">
-        <v>1028</v>
       </c>
       <c r="E432" t="s">
         <v>9</v>
@@ -11907,13 +11904,13 @@
         <v>12</v>
       </c>
       <c r="B433" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C433" t="s">
         <v>1029</v>
       </c>
-      <c r="C433" t="s">
+      <c r="D433" t="s">
         <v>1030</v>
-      </c>
-      <c r="D433" t="s">
-        <v>1031</v>
       </c>
       <c r="E433" t="s">
         <v>16</v>
@@ -11924,13 +11921,13 @@
         <v>5</v>
       </c>
       <c r="B434" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C434" t="s">
         <v>1032</v>
       </c>
-      <c r="C434" t="s">
+      <c r="D434" t="s">
         <v>1033</v>
-      </c>
-      <c r="D434" t="s">
-        <v>1034</v>
       </c>
       <c r="E434" t="s">
         <v>9</v>
@@ -11941,13 +11938,13 @@
         <v>12</v>
       </c>
       <c r="B435" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C435" t="s">
         <v>1035</v>
       </c>
-      <c r="C435" t="s">
+      <c r="D435" t="s">
         <v>1036</v>
-      </c>
-      <c r="D435" t="s">
-        <v>1037</v>
       </c>
       <c r="E435" t="s">
         <v>54</v>
@@ -11958,13 +11955,13 @@
         <v>12</v>
       </c>
       <c r="B436" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D436" t="s">
         <v>1038</v>
-      </c>
-      <c r="C436" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D436" t="s">
-        <v>1039</v>
       </c>
       <c r="E436" t="s">
         <v>54</v>
@@ -11975,13 +11972,13 @@
         <v>12</v>
       </c>
       <c r="B437" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D437" t="s">
         <v>1040</v>
-      </c>
-      <c r="C437" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D437" t="s">
-        <v>1041</v>
       </c>
       <c r="E437" t="s">
         <v>16</v>
@@ -11992,13 +11989,13 @@
         <v>12</v>
       </c>
       <c r="B438" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D438" t="s">
         <v>1042</v>
-      </c>
-      <c r="C438" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D438" t="s">
-        <v>1043</v>
       </c>
       <c r="E438" t="s">
         <v>16</v>
@@ -12009,13 +12006,13 @@
         <v>12</v>
       </c>
       <c r="B439" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D439" t="s">
         <v>1044</v>
-      </c>
-      <c r="C439" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D439" t="s">
-        <v>1045</v>
       </c>
       <c r="E439" t="s">
         <v>16</v>
@@ -12026,13 +12023,13 @@
         <v>12</v>
       </c>
       <c r="B440" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D440" t="s">
         <v>1046</v>
-      </c>
-      <c r="C440" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D440" t="s">
-        <v>1047</v>
       </c>
       <c r="E440" t="s">
         <v>16</v>
@@ -12043,13 +12040,13 @@
         <v>5</v>
       </c>
       <c r="B441" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C441" t="s">
         <v>1048</v>
       </c>
-      <c r="C441" t="s">
+      <c r="D441" t="s">
         <v>1049</v>
-      </c>
-      <c r="D441" t="s">
-        <v>1050</v>
       </c>
       <c r="E441" t="s">
         <v>9</v>
@@ -12060,13 +12057,13 @@
         <v>12</v>
       </c>
       <c r="B442" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D442" t="s">
         <v>1051</v>
-      </c>
-      <c r="C442" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D442" t="s">
-        <v>1052</v>
       </c>
       <c r="E442" t="s">
         <v>16</v>
@@ -12077,13 +12074,13 @@
         <v>12</v>
       </c>
       <c r="B443" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D443" t="s">
         <v>1053</v>
-      </c>
-      <c r="C443" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D443" t="s">
-        <v>1054</v>
       </c>
       <c r="E443" t="s">
         <v>54</v>
@@ -12094,13 +12091,13 @@
         <v>12</v>
       </c>
       <c r="B444" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C444" t="s">
         <v>1055</v>
       </c>
-      <c r="C444" t="s">
+      <c r="D444" t="s">
         <v>1056</v>
-      </c>
-      <c r="D444" t="s">
-        <v>1057</v>
       </c>
       <c r="E444" t="s">
         <v>16</v>
@@ -12111,13 +12108,13 @@
         <v>12</v>
       </c>
       <c r="B445" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D445" t="s">
         <v>1058</v>
-      </c>
-      <c r="C445" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D445" t="s">
-        <v>1059</v>
       </c>
       <c r="E445" t="s">
         <v>16</v>
@@ -12128,13 +12125,13 @@
         <v>12</v>
       </c>
       <c r="B446" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D446" t="s">
         <v>1060</v>
-      </c>
-      <c r="C446" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D446" t="s">
-        <v>1061</v>
       </c>
       <c r="E446" t="s">
         <v>16</v>
@@ -12145,13 +12142,13 @@
         <v>12</v>
       </c>
       <c r="B447" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C447" t="s">
         <v>1062</v>
       </c>
-      <c r="C447" t="s">
+      <c r="D447" t="s">
         <v>1063</v>
-      </c>
-      <c r="D447" t="s">
-        <v>1064</v>
       </c>
       <c r="E447" t="s">
         <v>16</v>
@@ -12162,13 +12159,13 @@
         <v>5</v>
       </c>
       <c r="B448" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C448" t="s">
         <v>1065</v>
       </c>
-      <c r="C448" t="s">
+      <c r="D448" t="s">
         <v>1066</v>
-      </c>
-      <c r="D448" t="s">
-        <v>1067</v>
       </c>
       <c r="E448" t="s">
         <v>9</v>
@@ -12179,13 +12176,13 @@
         <v>5</v>
       </c>
       <c r="B449" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D449" t="s">
         <v>1068</v>
-      </c>
-      <c r="C449" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D449" t="s">
-        <v>1069</v>
       </c>
       <c r="E449" t="s">
         <v>9</v>
@@ -12196,13 +12193,13 @@
         <v>5</v>
       </c>
       <c r="B450" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D450" t="s">
         <v>1070</v>
-      </c>
-      <c r="C450" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D450" t="s">
-        <v>1071</v>
       </c>
       <c r="E450" t="s">
         <v>9</v>
@@ -12213,13 +12210,13 @@
         <v>12</v>
       </c>
       <c r="B451" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D451" t="s">
         <v>1072</v>
-      </c>
-      <c r="C451" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D451" t="s">
-        <v>1073</v>
       </c>
       <c r="E451" t="s">
         <v>16</v>
@@ -12230,13 +12227,13 @@
         <v>12</v>
       </c>
       <c r="B452" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D452" t="s">
         <v>1074</v>
-      </c>
-      <c r="C452" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D452" t="s">
-        <v>1075</v>
       </c>
       <c r="E452" t="s">
         <v>16</v>
@@ -12247,13 +12244,13 @@
         <v>12</v>
       </c>
       <c r="B453" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D453" t="s">
         <v>1076</v>
-      </c>
-      <c r="C453" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D453" t="s">
-        <v>1077</v>
       </c>
       <c r="E453" t="s">
         <v>54</v>
@@ -12264,13 +12261,13 @@
         <v>12</v>
       </c>
       <c r="B454" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C454" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D454" t="s">
         <v>1078</v>
-      </c>
-      <c r="C454" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D454" t="s">
-        <v>1079</v>
       </c>
       <c r="E454" t="s">
         <v>54</v>
@@ -12281,13 +12278,13 @@
         <v>5</v>
       </c>
       <c r="B455" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C455" t="s">
         <v>1080</v>
       </c>
-      <c r="C455" t="s">
+      <c r="D455" t="s">
         <v>1081</v>
-      </c>
-      <c r="D455" t="s">
-        <v>1082</v>
       </c>
       <c r="E455" t="s">
         <v>9</v>
@@ -12298,13 +12295,13 @@
         <v>5</v>
       </c>
       <c r="B456" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D456" t="s">
         <v>1083</v>
-      </c>
-      <c r="C456" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D456" t="s">
-        <v>1084</v>
       </c>
       <c r="E456" t="s">
         <v>9</v>
@@ -12315,13 +12312,13 @@
         <v>12</v>
       </c>
       <c r="B457" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D457" t="s">
         <v>1085</v>
-      </c>
-      <c r="C457" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D457" t="s">
-        <v>1086</v>
       </c>
       <c r="E457" t="s">
         <v>16</v>
@@ -12332,13 +12329,13 @@
         <v>12</v>
       </c>
       <c r="B458" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C458" t="s">
         <v>1087</v>
       </c>
-      <c r="C458" t="s">
+      <c r="D458" t="s">
         <v>1088</v>
-      </c>
-      <c r="D458" t="s">
-        <v>1089</v>
       </c>
       <c r="E458" t="s">
         <v>16</v>
@@ -12349,13 +12346,13 @@
         <v>12</v>
       </c>
       <c r="B459" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D459" t="s">
         <v>1090</v>
-      </c>
-      <c r="C459" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D459" t="s">
-        <v>1091</v>
       </c>
       <c r="E459" t="s">
         <v>16</v>
@@ -12366,13 +12363,13 @@
         <v>12</v>
       </c>
       <c r="B460" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D460" t="s">
         <v>1092</v>
-      </c>
-      <c r="C460" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D460" t="s">
-        <v>1093</v>
       </c>
       <c r="E460" t="s">
         <v>16</v>
@@ -12383,13 +12380,13 @@
         <v>5</v>
       </c>
       <c r="B461" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C461" t="s">
         <v>1094</v>
       </c>
-      <c r="C461" t="s">
+      <c r="D461" t="s">
         <v>1095</v>
-      </c>
-      <c r="D461" t="s">
-        <v>1096</v>
       </c>
       <c r="E461" t="s">
         <v>9</v>
@@ -12400,13 +12397,13 @@
         <v>5</v>
       </c>
       <c r="B462" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D462" t="s">
         <v>1097</v>
-      </c>
-      <c r="C462" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D462" t="s">
-        <v>1098</v>
       </c>
       <c r="E462" t="s">
         <v>9</v>
@@ -12417,13 +12414,13 @@
         <v>12</v>
       </c>
       <c r="B463" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D463" t="s">
         <v>1099</v>
-      </c>
-      <c r="C463" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D463" t="s">
-        <v>1100</v>
       </c>
       <c r="E463" t="s">
         <v>16</v>
@@ -12434,13 +12431,13 @@
         <v>12</v>
       </c>
       <c r="B464" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D464" t="s">
         <v>1101</v>
-      </c>
-      <c r="C464" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D464" t="s">
-        <v>1102</v>
       </c>
       <c r="E464" t="s">
         <v>16</v>
@@ -12451,13 +12448,13 @@
         <v>12</v>
       </c>
       <c r="B465" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D465" t="s">
         <v>1103</v>
-      </c>
-      <c r="C465" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D465" t="s">
-        <v>1104</v>
       </c>
       <c r="E465" t="s">
         <v>16</v>
@@ -12468,13 +12465,13 @@
         <v>5</v>
       </c>
       <c r="B466" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C466" t="s">
         <v>1105</v>
       </c>
-      <c r="C466" t="s">
+      <c r="D466" t="s">
         <v>1106</v>
-      </c>
-      <c r="D466" t="s">
-        <v>1107</v>
       </c>
       <c r="E466" t="s">
         <v>9</v>
@@ -12485,13 +12482,13 @@
         <v>5</v>
       </c>
       <c r="B467" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D467" t="s">
         <v>1108</v>
-      </c>
-      <c r="C467" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D467" t="s">
-        <v>1109</v>
       </c>
       <c r="E467" t="s">
         <v>9</v>
@@ -12502,13 +12499,13 @@
         <v>12</v>
       </c>
       <c r="B468" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D468" t="s">
         <v>1110</v>
-      </c>
-      <c r="C468" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D468" t="s">
-        <v>1111</v>
       </c>
       <c r="E468" t="s">
         <v>16</v>
@@ -12519,13 +12516,13 @@
         <v>12</v>
       </c>
       <c r="B469" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D469" t="s">
         <v>1112</v>
-      </c>
-      <c r="C469" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D469" t="s">
-        <v>1113</v>
       </c>
       <c r="E469" t="s">
         <v>54</v>
@@ -12536,13 +12533,13 @@
         <v>12</v>
       </c>
       <c r="B470" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D470" t="s">
         <v>1114</v>
-      </c>
-      <c r="C470" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D470" t="s">
-        <v>1115</v>
       </c>
       <c r="E470" t="s">
         <v>16</v>
@@ -12553,13 +12550,13 @@
         <v>5</v>
       </c>
       <c r="B471" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C471" t="s">
         <v>1116</v>
       </c>
-      <c r="C471" t="s">
+      <c r="D471" t="s">
         <v>1117</v>
-      </c>
-      <c r="D471" t="s">
-        <v>1118</v>
       </c>
       <c r="E471" t="s">
         <v>9</v>
@@ -12570,13 +12567,13 @@
         <v>5</v>
       </c>
       <c r="B472" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D472" t="s">
         <v>1119</v>
-      </c>
-      <c r="C472" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D472" t="s">
-        <v>1120</v>
       </c>
       <c r="E472" t="s">
         <v>9</v>
@@ -12587,13 +12584,13 @@
         <v>12</v>
       </c>
       <c r="B473" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D473" t="s">
         <v>1121</v>
-      </c>
-      <c r="C473" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D473" t="s">
-        <v>1122</v>
       </c>
       <c r="E473" t="s">
         <v>16</v>
@@ -12604,13 +12601,13 @@
         <v>12</v>
       </c>
       <c r="B474" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D474" t="s">
         <v>1123</v>
-      </c>
-      <c r="C474" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D474" t="s">
-        <v>1124</v>
       </c>
       <c r="E474" t="s">
         <v>16</v>
@@ -12621,13 +12618,13 @@
         <v>12</v>
       </c>
       <c r="B475" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C475" t="s">
         <v>1125</v>
       </c>
-      <c r="C475" t="s">
+      <c r="D475" t="s">
         <v>1126</v>
-      </c>
-      <c r="D475" t="s">
-        <v>1127</v>
       </c>
       <c r="E475" t="s">
         <v>16</v>
@@ -12638,13 +12635,13 @@
         <v>12</v>
       </c>
       <c r="B476" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C476" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D476" t="s">
         <v>1128</v>
-      </c>
-      <c r="C476" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D476" t="s">
-        <v>1129</v>
       </c>
       <c r="E476" t="s">
         <v>54</v>
@@ -12655,13 +12652,13 @@
         <v>12</v>
       </c>
       <c r="B477" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D477" t="s">
         <v>1130</v>
-      </c>
-      <c r="C477" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D477" t="s">
-        <v>1131</v>
       </c>
       <c r="E477" t="s">
         <v>16</v>
@@ -12672,13 +12669,13 @@
         <v>12</v>
       </c>
       <c r="B478" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D478" t="s">
         <v>1132</v>
-      </c>
-      <c r="C478" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D478" t="s">
-        <v>1133</v>
       </c>
       <c r="E478" t="s">
         <v>54</v>
@@ -12689,13 +12686,13 @@
         <v>12</v>
       </c>
       <c r="B479" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D479" t="s">
         <v>1134</v>
-      </c>
-      <c r="C479" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D479" t="s">
-        <v>1135</v>
       </c>
       <c r="E479" t="s">
         <v>54</v>
@@ -12706,13 +12703,13 @@
         <v>12</v>
       </c>
       <c r="B480" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C480" t="s">
         <v>1136</v>
       </c>
-      <c r="C480" t="s">
+      <c r="D480" t="s">
         <v>1137</v>
-      </c>
-      <c r="D480" t="s">
-        <v>1138</v>
       </c>
       <c r="E480" t="s">
         <v>54</v>
@@ -12723,13 +12720,13 @@
         <v>12</v>
       </c>
       <c r="B481" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D481" t="s">
         <v>1139</v>
-      </c>
-      <c r="C481" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D481" t="s">
-        <v>1140</v>
       </c>
       <c r="E481" t="s">
         <v>16</v>
@@ -12740,13 +12737,13 @@
         <v>12</v>
       </c>
       <c r="B482" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D482" t="s">
         <v>1141</v>
-      </c>
-      <c r="C482" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D482" t="s">
-        <v>1142</v>
       </c>
       <c r="E482" t="s">
         <v>54</v>
@@ -12757,13 +12754,13 @@
         <v>5</v>
       </c>
       <c r="B483" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C483" t="s">
         <v>1143</v>
       </c>
-      <c r="C483" t="s">
+      <c r="D483" t="s">
         <v>1144</v>
-      </c>
-      <c r="D483" t="s">
-        <v>1145</v>
       </c>
       <c r="E483" t="s">
         <v>9</v>
@@ -12774,13 +12771,13 @@
         <v>12</v>
       </c>
       <c r="B484" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C484" t="s">
         <v>1146</v>
       </c>
-      <c r="C484" t="s">
+      <c r="D484" t="s">
         <v>1147</v>
-      </c>
-      <c r="D484" t="s">
-        <v>1148</v>
       </c>
       <c r="E484" t="s">
         <v>54</v>
@@ -12791,13 +12788,13 @@
         <v>12</v>
       </c>
       <c r="B485" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D485" t="s">
         <v>1149</v>
-      </c>
-      <c r="C485" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D485" t="s">
-        <v>1150</v>
       </c>
       <c r="E485" t="s">
         <v>16</v>
@@ -12808,13 +12805,13 @@
         <v>5</v>
       </c>
       <c r="B486" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C486" t="s">
         <v>1151</v>
       </c>
-      <c r="C486" t="s">
+      <c r="D486" t="s">
         <v>1152</v>
-      </c>
-      <c r="D486" t="s">
-        <v>1153</v>
       </c>
       <c r="E486" t="s">
         <v>9</v>
@@ -12825,13 +12822,13 @@
         <v>5</v>
       </c>
       <c r="B487" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D487" t="s">
         <v>1154</v>
-      </c>
-      <c r="C487" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D487" t="s">
-        <v>1155</v>
       </c>
       <c r="E487" t="s">
         <v>9</v>
@@ -12842,13 +12839,13 @@
         <v>5</v>
       </c>
       <c r="B488" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D488" t="s">
         <v>1156</v>
-      </c>
-      <c r="C488" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D488" t="s">
-        <v>1157</v>
       </c>
       <c r="E488" t="s">
         <v>9</v>
@@ -12859,13 +12856,13 @@
         <v>5</v>
       </c>
       <c r="B489" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C489" t="s">
         <v>1158</v>
       </c>
-      <c r="C489" t="s">
+      <c r="D489" t="s">
         <v>1159</v>
-      </c>
-      <c r="D489" t="s">
-        <v>1160</v>
       </c>
       <c r="E489" t="s">
         <v>9</v>
@@ -12876,13 +12873,13 @@
         <v>12</v>
       </c>
       <c r="B490" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D490" t="s">
         <v>1161</v>
-      </c>
-      <c r="C490" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D490" t="s">
-        <v>1162</v>
       </c>
       <c r="E490" t="s">
         <v>16</v>
@@ -12893,13 +12890,13 @@
         <v>12</v>
       </c>
       <c r="B491" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D491" t="s">
         <v>1163</v>
-      </c>
-      <c r="C491" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D491" t="s">
-        <v>1164</v>
       </c>
       <c r="E491" t="s">
         <v>16</v>
@@ -12910,13 +12907,13 @@
         <v>12</v>
       </c>
       <c r="B492" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D492" t="s">
         <v>1165</v>
-      </c>
-      <c r="C492" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D492" t="s">
-        <v>1166</v>
       </c>
       <c r="E492" t="s">
         <v>54</v>
@@ -12927,13 +12924,13 @@
         <v>12</v>
       </c>
       <c r="B493" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D493" t="s">
         <v>1167</v>
-      </c>
-      <c r="C493" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D493" t="s">
-        <v>1168</v>
       </c>
       <c r="E493" t="s">
         <v>16</v>
@@ -12944,13 +12941,13 @@
         <v>5</v>
       </c>
       <c r="B494" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C494" t="s">
         <v>1169</v>
       </c>
-      <c r="C494" t="s">
+      <c r="D494" t="s">
         <v>1170</v>
-      </c>
-      <c r="D494" t="s">
-        <v>1171</v>
       </c>
       <c r="E494" t="s">
         <v>9</v>
@@ -12961,13 +12958,13 @@
         <v>12</v>
       </c>
       <c r="B495" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D495" t="s">
         <v>1172</v>
-      </c>
-      <c r="C495" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D495" t="s">
-        <v>1173</v>
       </c>
       <c r="E495" t="s">
         <v>16</v>
@@ -12978,13 +12975,13 @@
         <v>5</v>
       </c>
       <c r="B496" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C496" t="s">
         <v>1174</v>
       </c>
-      <c r="C496" t="s">
+      <c r="D496" t="s">
         <v>1175</v>
-      </c>
-      <c r="D496" t="s">
-        <v>1176</v>
       </c>
       <c r="E496" t="s">
         <v>9</v>
@@ -12995,13 +12992,13 @@
         <v>5</v>
       </c>
       <c r="B497" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D497" t="s">
         <v>1177</v>
-      </c>
-      <c r="C497" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D497" t="s">
-        <v>1178</v>
       </c>
       <c r="E497" t="s">
         <v>9</v>
@@ -13012,13 +13009,13 @@
         <v>12</v>
       </c>
       <c r="B498" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D498" t="s">
         <v>1179</v>
-      </c>
-      <c r="C498" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D498" t="s">
-        <v>1180</v>
       </c>
       <c r="E498" t="s">
         <v>16</v>
@@ -13029,13 +13026,13 @@
         <v>12</v>
       </c>
       <c r="B499" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C499" t="s">
         <v>1181</v>
       </c>
-      <c r="C499" t="s">
+      <c r="D499" t="s">
         <v>1182</v>
-      </c>
-      <c r="D499" t="s">
-        <v>1183</v>
       </c>
       <c r="E499" t="s">
         <v>16</v>
@@ -13046,13 +13043,13 @@
         <v>12</v>
       </c>
       <c r="B500" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D500" t="s">
         <v>1184</v>
-      </c>
-      <c r="C500" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D500" t="s">
-        <v>1185</v>
       </c>
       <c r="E500" t="s">
         <v>16</v>
@@ -13063,13 +13060,13 @@
         <v>12</v>
       </c>
       <c r="B501" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D501" t="s">
         <v>1186</v>
-      </c>
-      <c r="C501" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D501" t="s">
-        <v>1187</v>
       </c>
       <c r="E501" t="s">
         <v>16</v>
@@ -13080,13 +13077,13 @@
         <v>12</v>
       </c>
       <c r="B502" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C502" t="s">
         <v>1188</v>
       </c>
-      <c r="C502" t="s">
+      <c r="D502" t="s">
         <v>1189</v>
-      </c>
-      <c r="D502" t="s">
-        <v>1190</v>
       </c>
       <c r="E502" t="s">
         <v>16</v>
@@ -13097,13 +13094,13 @@
         <v>12</v>
       </c>
       <c r="B503" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D503" t="s">
         <v>1191</v>
-      </c>
-      <c r="C503" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D503" t="s">
-        <v>1192</v>
       </c>
       <c r="E503" t="s">
         <v>54</v>
@@ -13114,13 +13111,13 @@
         <v>12</v>
       </c>
       <c r="B504" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D504" t="s">
         <v>1193</v>
-      </c>
-      <c r="C504" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D504" t="s">
-        <v>1194</v>
       </c>
       <c r="E504" t="s">
         <v>54</v>
